--- a/raw/result/全國投開票所一覽表/不分區立委/不分區立委-A05-6-得票數一覽表(苗栗縣).xlsx
+++ b/raw/result/全國投開票所一覽表/不分區立委/不分區立委-A05-6-得票數一覽表(苗栗縣).xlsx
@@ -4060,13 +4060,13 @@
         <v>312923.0</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>8039.0</v>
+        <v>8049.0</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>320962.0</v>
+        <v>320972.0</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="X6" s="4" t="n">
         <v>320984.0</v>
@@ -23731,13 +23731,13 @@
         <v>60534.0</v>
       </c>
       <c r="U243" s="4" t="n">
-        <v>1215.0</v>
+        <v>1225.0</v>
       </c>
       <c r="V243" s="4" t="n">
-        <v>61749.0</v>
+        <v>61759.0</v>
       </c>
       <c r="W243" s="4" t="n">
-        <v>11.0</v>
+        <v>1.0</v>
       </c>
       <c r="X243" s="4" t="n">
         <v>61760.0</v>
@@ -23749,7 +23749,7 @@
         <v>85673.0</v>
       </c>
       <c r="AA243" s="3" t="s">
-        <v>267</v>
+        <v>399</v>
       </c>
     </row>
     <row r="244">
@@ -26304,13 +26304,13 @@
         <v>901.0</v>
       </c>
       <c r="U274" s="4" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="V274" s="4" t="n">
-        <v>904.0</v>
+        <v>914.0</v>
       </c>
       <c r="W274" s="4" t="n">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="X274" s="4" t="n">
         <v>914.0</v>
@@ -26322,7 +26322,7 @@
         <v>1279.0</v>
       </c>
       <c r="AA274" s="3" t="s">
-        <v>285</v>
+        <v>543</v>
       </c>
     </row>
     <row r="275">
